--- a/Xlsx/AcceptanceCriteria.xlsx
+++ b/Xlsx/AcceptanceCriteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemanvithamylapalli/Documents/GitHub/2024S-neon-nomads/Xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25DD32-4786-E141-8BED-EC82064B9FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8243AD0-B5B4-7E48-A53E-45CCF4B60795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{577028C0-78C5-4101-B5CB-2623EA44809E}"/>
   </bookViews>
@@ -2659,10 +2659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4AF4C8-9A46-4932-8C99-CFBA11C0C87F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2929,5 +2932,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Xlsx/AcceptanceCriteria.xlsx
+++ b/Xlsx/AcceptanceCriteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemanvithamylapalli/Documents/GitHub/2024S-neon-nomads/Xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemanvithamylapalli/Desktop/2024S-neon-nomads/Xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8243AD0-B5B4-7E48-A53E-45CCF4B60795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2E0C45-D150-1047-8847-1FF9610B7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{577028C0-78C5-4101-B5CB-2623EA44809E}"/>
   </bookViews>
@@ -101,24 +101,172 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> student on a budget </t>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Health-conscious Individual</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have meal suggestions based on my dietry needs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can maintain my dietry regimen without hassle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Environmentally Aware User</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">be alerted about food nearing expiration </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can reduce food waste</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gourmet Cook</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">access a wide variety of recipes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can explore new dishes and cuisines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Parent with multiple kids </t>
     </r>
     <r>
       <rPr>
@@ -135,10 +283,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">track my food expenses </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">plan meals for the whole week </t>
     </r>
     <r>
       <rPr>
@@ -155,14 +302,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can manage my budget more effectively</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can organize my shopping and cooking schedule better</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">As a </t>
     </r>
     <r>
@@ -172,26 +325,26 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">busy parent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> easily upload my grocery recipts </t>
+      <t>Novice Cook</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">have step-by step cooking guides </t>
     </r>
     <r>
       <rPr>
@@ -210,7 +363,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I can automatically update my pantry inventory</t>
+      <t>I can learn to cook with more confidence</t>
     </r>
   </si>
   <si>
@@ -224,7 +377,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Health-conscious Individual</t>
+      <t>Recipe Entusiast</t>
     </r>
     <r>
       <rPr>
@@ -243,7 +396,59 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>have meal suggestions based on my dietry needs</t>
+      <t xml:space="preserve">upload my own recipes and share them </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can contribute to the community and save my favorites</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>College Student</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">find recipes based on the ingredients I have </t>
     </r>
     <r>
       <rPr>
@@ -262,7 +467,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I can maintain my dietry regimen without hassle</t>
+      <t>I can avoid buying extra groceries</t>
     </r>
   </si>
   <si>
@@ -276,7 +481,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Environmentally Aware User</t>
+      <t>Bakery Owner</t>
     </r>
     <r>
       <rPr>
@@ -295,7 +500,111 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">be alerted about food nearing expiration </t>
+      <t>manage my inventory of baking ingredients</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I can prevent shortages and reduce excess waste</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restaurant Manager</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track the freshness of my persihable stock</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can ensure the quality of the dishes served</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pastry Chef</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">receive alerts when specific ingredients are low </t>
     </r>
     <r>
       <rPr>
@@ -314,7 +623,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I can reduce food waste</t>
+      <t xml:space="preserve"> I can reorder supplies in time for baking</t>
     </r>
   </si>
   <si>
@@ -328,45 +637,45 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gourmet Cook</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">access a wide variety of recipes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can explore new dishes and cuisines</t>
+      <t>Restaurant Chef</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>easily access and modify digital menus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can quickly update our offerings based on available inventory</t>
     </r>
   </si>
   <si>
@@ -380,56 +689,49 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Parent with multiple kids </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">plan meals for the whole week </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can organize my shopping and cooking schedule better</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t>Seafood Market Manager</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track the sell-by dates of seafood</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we can promote the freshness and safety of our products</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">As a </t>
     </r>
     <r>
@@ -439,7 +741,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Novice Cook</t>
+      <t>Food Festival Organizer</t>
     </r>
     <r>
       <rPr>
@@ -458,111 +760,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">have step-by step cooking guides </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can learn to cook with more confidence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recipe Entusiast</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">upload my own recipes and share them </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can contribute to the community and save my favorites</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>College Student</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">find recipes based on the ingredients I have </t>
+      <t>manage multiple vendor inventories in one platform</t>
     </r>
     <r>
       <rPr>
@@ -581,318 +779,6 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I can avoid buying extra groceries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bakery Owner</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manage my inventory of baking ingredients</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I can prevent shortages and reduce excess waste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Restaurant Manager</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>track the freshness of my persihable stock</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can ensure the quality of the dishes served</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pastry Chef</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">receive alerts when specific ingredients are low </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I can reorder supplies in time for baking</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Restaurant Chef</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>easily access and modify digital menus</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I can quickly update our offerings based on available inventory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seafood Market Manager</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>track the sell-by dates of seafood</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> we can promote the freshness and safety of our products</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Food Festival Organizer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manage multiple vendor inventories in one platform</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> I can oversee and ensure all vendors are adequately stocked</t>
     </r>
   </si>
@@ -916,7 +802,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I have entered my monthly budget into the KitchenSync app,
+      <t xml:space="preserve"> I am a health-conscious individual who requires meal suggestions based on my dietary needs,
 </t>
     </r>
     <r>
@@ -938,7 +824,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I put each food purchase,
+      <t xml:space="preserve"> I input my dietary preferences into the KitchenSync app and ask for meal suggestions,
 </t>
     </r>
     <r>
@@ -960,7 +846,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the app should deduct the amount from my budget and warn me if I am close to exceeding it.</t>
+      <t xml:space="preserve"> the app should provide me with recipes that use ingredients currently in my inventory and fit my dietary restrictions.</t>
     </r>
   </si>
   <si>
@@ -983,7 +869,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I am logged into the KitchenSync app,
+      <t xml:space="preserve"> I am a bakery owner who must keep track of various baking ingredients,
 </t>
     </r>
     <r>
@@ -1005,7 +891,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I take a picture of my grocery receipt and upload it,
+      <t xml:space="preserve"> I chech my inventory levels on the KitchenSync app,
 </t>
     </r>
     <r>
@@ -1027,7 +913,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the app should automatically identify and update the inventory with the purchased items.</t>
+      <t xml:space="preserve"> the app should display the current stock levels and notify me and when it's time to reorder.</t>
     </r>
   </si>
   <si>
@@ -1050,7 +936,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I am a health-conscious individual who requires meal suggestions based on my dietary needs,
+      <t xml:space="preserve"> I am a restaurant manager responsible for maintaining the freshness of perishable goods,
 </t>
     </r>
     <r>
@@ -1072,7 +958,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I input my dietary preferences into the KitchenSync app and ask for meal suggestions,
+      <t xml:space="preserve"> I store new stock in the inventory using the KitchenSync app,
 </t>
     </r>
     <r>
@@ -1094,37 +980,103 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the app should provide me with recipes that use ingredients currently in my inventory and fit my dietary restrictions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t xml:space="preserve"> the app should track the shelf life and alert me a few days before the expiration date.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I am updating the menu for the day, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I open the KitchenSync app to review our current inventory,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the app should display the ingredients available and suggest menu items that can be prepared.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Given</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I am a bakery owner who must keep track of various baking ingredients,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am logged into the KitchenSync Platform as a Food Festival Organizer,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1134,19 +1086,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I chech my inventory levels on the KitchenSync app,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I access the multi-vendor inventory management dashboard,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1156,42 +1108,34 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the app should display the current stock levels and notify me and when it's time to reorder.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view and manage the inventory levels of all participating vendors in one consolidated view.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Given</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I am a restaurant manager responsible for maintaining the freshness of perishable goods,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a seafood product is approaching it's sell-by date,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1201,19 +1145,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I store new stock in the inventory using the KitchenSync app,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I check the inventory in the KitchenSync app,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1223,12 +1167,23 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the app should track the shelf life and alert me a few days before the expiration date.</t>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the app should highlight the product and alert ne so I can prioritize it's sale to ensure freshness and safety</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1248,18 +1203,95 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I am updating the menu for the day, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I need to ensure continous availabity of baking ingredients,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I review my upcoming baking schedule and current inventory in the KitchenSync app,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the app should provide a forecast of ingredient usage and alert me in advance if I need to reorder to meet demand.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I have entered my ingredient inventory into the KitchenSync app, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">When </t>
@@ -1271,7 +1303,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I open the KitchenSync app to review our current inventory,</t>
+      <t>I ask the app to suggest recipes based on my current inventory,</t>
     </r>
     <r>
       <rPr>
@@ -1290,6 +1322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then</t>
@@ -1302,29 +1335,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the app should display the ingredients available and suggest menu items that can be prepared.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve"> the app should filter and present recipes that I can cook without needing to buy more groceries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Given</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I am logged into the KitchenSync Platform as a Food Festival Organizer,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am registered in the KitchenSync app as a Recipe Entuhsiast,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1334,19 +1375,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I access the multi-vendor inventory management dashboard,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I create a new recipe and select the options to upload it,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1356,34 +1397,42 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view and manage the inventory levels of all participating vendors in one consolidated view.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the app should allow me to enter the recipe details and save it to my profile and the community recipe database.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Given</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a seafood product is approaching it's sell-by date,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am logged into the KitchenSync app 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1393,19 +1442,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I check the inventory in the KitchenSync app,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I select a recipe to cook,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1415,45 +1464,56 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the app should highlight the product and alert ne so I can prioritize it's sale to ensure freshness and safety</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Given </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I need to ensure continous availabity of baking ingredients,</t>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the app should provide a detailed step-by-step cooking guide that I can follow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I have selected meals for each day of the week,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I finalize my weekly meal plan on the KitchenSync app,</t>
     </r>
     <r>
       <rPr>
@@ -1475,6 +1535,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the app should generate a comprehensive shopping list that includes all the ingredients needed for the selected meals.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am planning to cook a meal,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>When</t>
     </r>
     <r>
@@ -1485,7 +1589,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I review my upcoming baking schedule and current inventory in the KitchenSync app,
+      <t xml:space="preserve"> I use the filtering and search tools on the KitchenSync app,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I should be able to find recipes based on specific cuisines ingredients, cooking techniques.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want to minimize food waste due to expired products,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I check the KitchenSync app,
 </t>
     </r>
     <r>
@@ -1507,434 +1677,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the app should provide a forecast of ingredient usage and alert me in advance if I need to reorder to meet demand.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I have entered my ingredient inventory into the KitchenSync app, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I ask the app to suggest recipes based on my current inventory,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the app should filter and present recipes that I can cook without needing to buy more groceries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I am registered in the KitchenSync app as a Recipe Entuhsiast,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I create a new recipe and select the options to upload it,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the app should allow me to enter the recipe details and save it to my profile and the community recipe database.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I am logged into the KitchenSync app 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I select a recipe to cook,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the app should provide a detailed step-by-step cooking guide that I can follow.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I have selected meals for each day of the week,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I finalize my weekly meal plan on the KitchenSync app,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the app should generate a comprehensive shopping list that includes all the ingredients needed for the selected meals.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I am planning to cook a meal,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I use the filtering and search tools on the KitchenSync app,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I should be able to find recipes based on specific cuisines ingredients, cooking techniques.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I want to minimize food waste due to expired products,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I check the KitchenSync app,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> it should provide a prioritized list of items to use based on their expiration dates, with recipes suggestions when applicable.</t>
     </r>
-  </si>
-  <si>
-    <t>The app must allow the user to set a maximum budget for food spending.
-The app must track the user's food purchases against the budget.</t>
-  </si>
-  <si>
-    <t>The app must display a current inventory of the pantry.
-The app must allow updating of inventory in real-time.</t>
   </si>
   <si>
     <t>The app must allow user to input their current pantry items.
@@ -2171,6 +1915,261 @@
   </si>
   <si>
     <t>The app must allow festival organizers to access multiple inventory lists.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the system has identified the food in the image,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it fetches recipe videos,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it should display atleast four relevant recipe videos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> student  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I want to upload an image of the food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can recive video recommendations of the image uploaded</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I want to see detailed nutitional information for the uploaded food image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can make informed dietary choices</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the system has processed the uploaded food image,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the analysis identifies the food item,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it should display detailed nutritional information including calories, fats, protiens, carbs and any significant vitamins and minerals</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The app must fetch recipe videos
+</t>
+  </si>
+  <si>
+    <t>The app must display detailed nutritional values of the food items uploaded</t>
   </si>
 </sst>
 </file>
@@ -2664,8 +2663,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2689,18 +2688,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -2708,13 +2707,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -2722,10 +2721,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>11</v>
@@ -2736,13 +2735,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -2750,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>4</v>
@@ -2764,10 +2763,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>12</v>
@@ -2778,10 +2777,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>8</v>
@@ -2792,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -2806,10 +2805,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>10</v>
@@ -2820,10 +2819,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>6</v>
@@ -2834,10 +2833,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>5</v>
@@ -2848,10 +2847,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -2862,10 +2861,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>9</v>
@@ -2876,13 +2875,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -2890,13 +2889,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -2904,10 +2903,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>7</v>
@@ -2918,13 +2917,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
